--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B331C3E-1984-4D88-9950-7045864BA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E107F1-6FC2-4DD8-B1C8-58524A255DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28470" yWindow="330" windowWidth="28260" windowHeight="20325" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-29940" yWindow="1710" windowWidth="26985" windowHeight="18555" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>LONG</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>TNXP</t>
+  </si>
+  <si>
+    <t>EVO ST</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -752,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -913,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="4">
-        <v>28.86</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -930,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>37.14</v>
+        <v>37.99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>10.19</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>117.12</v>
+        <v>116.78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>14.63</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>190.12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1016,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>70.3</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,8 +1035,8 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>11.28</v>
+      <c r="G17" s="2">
+        <v>11.4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1044,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>100</v>
+        <v>100.41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1057,8 +1063,8 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>114.49</v>
+      <c r="G19" s="2">
+        <v>112.9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1086,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.12</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1100,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>10.210000000000001</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>22.1</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1128,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>26.7</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1148,11 +1154,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>196.44</v>
+        <v>185</v>
       </c>
       <c r="H25" s="1">
-        <f>+G25/E25-1</f>
-        <v>1.2159934047815346E-2</v>
+        <f t="shared" ref="H25:H68" si="0">+G25/E25-1</f>
+        <v>-4.6784830997526838E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1172,11 +1178,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="H26" s="1">
-        <f>+G26/E26-1</f>
-        <v>-0.16417910447761186</v>
+        <f t="shared" si="0"/>
+        <v>-0.11194029850746279</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1196,11 +1202,11 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>28.86</v>
+        <v>28.46</v>
       </c>
       <c r="H27" s="1">
-        <f>+G27/E27-1</f>
-        <v>7.1269487750556637E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6421677802524162E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1220,11 +1226,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>9.06</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H28" s="1">
-        <f>+G28/E28-1</f>
-        <v>7.9856972586412445E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.6948748510130969E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1244,11 +1250,11 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H29" s="1">
-        <f>+G29/E29-1</f>
-        <v>8.0645161290322509E-3</v>
+        <f t="shared" si="0"/>
+        <v>-5.6451612903225867E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1269,11 +1275,11 @@
         <v>5</v>
       </c>
       <c r="G30" s="6">
-        <v>15.81</v>
+        <v>15.54</v>
       </c>
       <c r="H30" s="1">
-        <f>+G30/E30-1</f>
-        <v>-0.19213081246806329</v>
+        <f t="shared" si="0"/>
+        <v>-0.20592743995912111</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1294,11 +1300,11 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>12.5</v>
+        <v>12.27</v>
       </c>
       <c r="H31" s="1">
-        <f>+G31/E31-1</f>
-        <v>5.5743243243243201E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.6317567567567544E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,11 +1324,11 @@
         <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H32" s="1">
-        <f>+G32/E32-1</f>
-        <v>8.0645161290322509E-3</v>
+        <f t="shared" si="0"/>
+        <v>-5.6451612903225867E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1342,11 +1348,11 @@
         <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>28.86</v>
+        <v>28.49</v>
       </c>
       <c r="H33" s="5">
-        <f>+G33/E33-1</f>
-        <v>7.047477744807118E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6750741839762586E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1366,11 +1372,11 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <v>30.21</v>
+        <v>29.33</v>
       </c>
       <c r="H34" s="1">
-        <f>+G34/E34-1</f>
-        <v>8.3572453371592692E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2008608321377325E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1390,11 +1396,11 @@
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="H35" s="1">
-        <f>+G35/E35-1</f>
-        <v>1.2048192771084265E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,11 +1420,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>14.45</v>
+        <v>14.82</v>
       </c>
       <c r="H36" s="1">
-        <f>+G36/E36-1</f>
-        <v>6.8786982248520756E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6153846153846256E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1439,11 +1445,11 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>5.12</v>
+        <v>5.37</v>
       </c>
       <c r="H37" s="1">
-        <f>+G37/E37-1</f>
-        <v>-3.0303030303030276E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7045454545454586E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1463,11 +1469,11 @@
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <v>7.22</v>
+        <v>7.74</v>
       </c>
       <c r="H38" s="5">
-        <f>+G38/E38-1</f>
-        <v>0.28014184397163122</v>
+        <f t="shared" si="0"/>
+        <v>0.37234042553191493</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,11 +1493,11 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H39" s="1">
-        <f>+G39/E39-1</f>
-        <v>0.10447761194029836</v>
+        <f t="shared" si="0"/>
+        <v>0.11194029850746268</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1511,11 +1517,11 @@
         <v>3</v>
       </c>
       <c r="G40" s="2">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="H40" s="1">
-        <f>+G40/E40-1</f>
-        <v>2.9336734693877542E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1887755102040893E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1535,11 +1541,11 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <v>56.26</v>
+        <v>54.54</v>
       </c>
       <c r="H41" s="1">
-        <f>+G41/E41-1</f>
-        <v>4.5919315857966048E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3943112102621225E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,7 +1568,7 @@
         <v>31</v>
       </c>
       <c r="H42" s="1">
-        <f>+G42/E42-1</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="I42" t="s">
@@ -1587,11 +1593,11 @@
         <v>5</v>
       </c>
       <c r="G43" s="2">
-        <v>117.12</v>
+        <v>116.73</v>
       </c>
       <c r="H43" s="1">
-        <f>+G43/E43-1</f>
-        <v>4.4222539229672009E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0745363766048648E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1611,11 +1617,11 @@
         <v>4</v>
       </c>
       <c r="G44" s="6">
-        <v>40.479999999999997</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="H44" s="5">
-        <f>+G44/E44-1</f>
-        <v>2.4764735017333006E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.8479445269935733E-2</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1637,11 +1643,11 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>9.15</v>
+        <v>9.75</v>
       </c>
       <c r="H45" s="1">
-        <f>+G45/E45-1</f>
-        <v>0.11585365853658547</v>
+        <f t="shared" si="0"/>
+        <v>0.18902439024390261</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1660,12 +1666,12 @@
       <c r="F46">
         <v>3</v>
       </c>
-      <c r="G46">
-        <v>16.489999999999998</v>
+      <c r="G46" s="2">
+        <v>13.9</v>
       </c>
       <c r="H46" s="1">
-        <f>+G46/E46-1</f>
-        <v>0.13802622498274664</v>
+        <f t="shared" si="0"/>
+        <v>-4.0717736369910273E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -1685,11 +1691,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="4">
-        <v>18.25</v>
+        <v>17.52</v>
       </c>
       <c r="H47" s="5">
-        <f>+G47/E47-1</f>
-        <v>5.7971014492753659E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5652173913043521E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1709,11 +1715,11 @@
         <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="H48" s="5">
-        <f>+G48/E48-1</f>
-        <v>-8.2034594964891183E-2</v>
+        <f t="shared" si="0"/>
+        <v>-8.5459839013529715E-2</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1735,11 +1741,11 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>615.99</v>
+        <v>610</v>
       </c>
       <c r="H49" s="1">
-        <f>+G49/E49-1</f>
-        <v>4.877650897226804E-3</v>
+        <f t="shared" si="0"/>
+        <v>-4.8939641109299048E-3</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
@@ -1759,11 +1765,11 @@
         <v>3</v>
       </c>
       <c r="G50" s="4">
-        <v>42.78</v>
+        <v>45.73</v>
       </c>
       <c r="H50" s="5">
-        <f>+G50/E50-1</f>
-        <v>-0.11920938851142682</v>
+        <f t="shared" si="0"/>
+        <v>-5.8472308009059115E-2</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -1783,11 +1789,11 @@
         <v>10</v>
       </c>
       <c r="G51" s="6">
-        <v>15.81</v>
+        <v>15.56</v>
       </c>
       <c r="H51" s="5">
-        <f>+G51/E51-1</f>
-        <v>-0.11577181208053688</v>
+        <f t="shared" si="0"/>
+        <v>-0.12975391498881428</v>
       </c>
       <c r="I51" s="4"/>
     </row>
@@ -1808,11 +1814,11 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="H52" s="1">
-        <f>+G52/E52-1</f>
-        <v>0.11851851851851847</v>
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
@@ -1832,11 +1838,11 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>111.86</v>
+        <v>106.54</v>
       </c>
       <c r="H53" s="1">
-        <f>+G53/E53-1</f>
-        <v>2.623853211009175E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.2568807339449437E-2</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
@@ -1856,11 +1862,11 @@
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>40</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="H54" s="1">
-        <f>+G54/E54-1</f>
-        <v>-4.1686631528509821E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.9175850503114469E-2</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -1880,11 +1886,11 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>368.02</v>
+        <v>363.55</v>
       </c>
       <c r="H55" s="1">
-        <f>+G55/E55-1</f>
-        <v>-2.4285487035367814E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.6136592608303708E-2</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -1904,11 +1910,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>35.14</v>
+        <v>34.72</v>
       </c>
       <c r="H56" s="1">
-        <f>+G56/E56-1</f>
-        <v>2.1808665309682951E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.5958127362605339E-3</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -1928,11 +1934,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>119.39</v>
+        <v>115.91</v>
       </c>
       <c r="H57" s="1">
-        <f>+G57/E57-1</f>
-        <v>2.9224137931034511E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.7586206896551602E-4</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
@@ -1952,11 +1958,11 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <v>64.95</v>
+        <v>63.3</v>
       </c>
       <c r="H58" s="1">
-        <f>+G58/E58-1</f>
-        <v>-3.3625948519565463E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.8175866686504984E-2</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -1976,11 +1982,11 @@
         <v>2</v>
       </c>
       <c r="G59" s="2">
-        <v>13.44</v>
+        <v>13.35</v>
       </c>
       <c r="H59" s="1">
-        <f>+G59/E59-1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-6.6964285714286031E-3</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -2000,11 +2006,11 @@
         <v>2</v>
       </c>
       <c r="G60" s="2">
-        <v>7.3</v>
+        <v>7.07</v>
       </c>
       <c r="H60" s="1">
-        <f>+G60/E60-1</f>
-        <v>2.9619181946403339E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.8208744710859213E-3</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
@@ -2024,11 +2030,11 @@
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>4.7</v>
+        <v>4.91</v>
       </c>
       <c r="H61" s="1">
-        <f>+G61/E61-1</f>
-        <v>0.3623188405797102</v>
+        <f t="shared" si="0"/>
+        <v>0.42318840579710137</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
@@ -2048,11 +2054,11 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>6.68</v>
+        <v>6.13</v>
       </c>
       <c r="H62" s="1">
-        <f>+G62/E62-1</f>
-        <v>7.7419354838709653E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.1290322580645218E-2</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -2072,11 +2078,11 @@
         <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>53.1</v>
+        <v>52.06</v>
       </c>
       <c r="H63" s="1">
-        <f>+G63/E63-1</f>
-        <v>2.430555555555558E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2438271604938738E-3</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2096,11 +2102,11 @@
         <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>115.39</v>
+        <v>112.45</v>
       </c>
       <c r="H64" s="1">
-        <f>+G64/E64-1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.5478810988820544E-2</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -2123,7 +2129,7 @@
         <v>529.42999999999995</v>
       </c>
       <c r="H65" s="1">
-        <f>+G65/E65-1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2147,7 +2153,55 @@
         <v>0.19</v>
       </c>
       <c r="H66" s="1">
-        <f>+G66/E66-1</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="3">
+        <v>45587</v>
+      </c>
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="2">
+        <v>950</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>950</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="3">
+        <v>45587</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2">
+        <v>5.37</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E107F1-6FC2-4DD8-B1C8-58524A255DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29478692-41E9-48EC-BCCA-572AD79E0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="1710" windowWidth="26985" windowHeight="18555" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-27855" yWindow="2115" windowWidth="27465" windowHeight="18600" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>LONG</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>BUY</t>
+  </si>
+  <si>
+    <t>NUVB</t>
   </si>
 </sst>
 </file>
@@ -758,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1160,7 @@
         <v>185</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:H68" si="0">+G25/E25-1</f>
+        <f t="shared" ref="H25:H69" si="0">+G25/E25-1</f>
         <v>-4.6784830997526838E-2</v>
       </c>
     </row>
@@ -2201,6 +2204,30 @@
         <v>5.37</v>
       </c>
       <c r="H68" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3">
+        <v>45588</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="H69" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29478692-41E9-48EC-BCCA-572AD79E0CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E8A3B-17FE-479A-AAEA-678AE1F344B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27855" yWindow="2115" windowWidth="27465" windowHeight="18600" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-31620" yWindow="600" windowWidth="31485" windowHeight="19635" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>LONG</t>
   </si>
@@ -243,9 +243,6 @@
     <t>META</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Current Price</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>NUVB</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>weird fraud thing getting pumped</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -339,6 +342,13 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,6 +377,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Drugs"/>
       <sheetName val="Industry Model"/>
       <sheetName val="Todo"/>
       <sheetName val="Launches"/>
@@ -383,7 +394,8 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="2">
           <cell r="C2">
             <v>6.71</v>
@@ -435,10 +447,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -764,10 +776,10 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="B61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -780,30 +792,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
         <v>63</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -939,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>37.99</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>9.99</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -967,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>116.78</v>
+        <v>121.73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -984,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>14.53</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1011,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1025,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>72.3</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1039,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="2">
-        <v>11.4</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1053,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>100.41</v>
+        <v>99.21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1067,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="2">
-        <v>112.9</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1081,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1095,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1109,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>10.52</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1123,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>23.25</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>27.39</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,11 +1193,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.11194029850746279</v>
+        <v>-0.23880597014925375</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1205,11 +1217,11 @@
         <v>10</v>
       </c>
       <c r="G27">
-        <v>28.46</v>
+        <v>26.55</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>5.6421677802524162E-2</v>
+        <v>-1.4476614699331813E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1229,11 +1241,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>8.6999999999999993</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>3.6948748510130969E-2</v>
+        <v>0.11680572109654341</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1253,11 +1265,11 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6451612903225867E-2</v>
+        <v>-6.4516129032258118E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,11 +1290,11 @@
         <v>5</v>
       </c>
       <c r="G30" s="6">
-        <v>15.54</v>
+        <v>19.25</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20592743995912111</v>
+        <v>-1.635155850792025E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1303,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>12.27</v>
+        <v>11.56</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>3.6317567567567544E-2</v>
+        <v>-2.3648648648648574E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1327,11 +1339,11 @@
         <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6451612903225867E-2</v>
+        <v>-6.4516129032258118E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1351,35 +1363,35 @@
         <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>28.49</v>
+        <v>26.46</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>5.6750741839762586E-2</v>
+        <v>-1.8545994065281901E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="10">
         <v>45568</v>
       </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
         <v>27.88</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2">
-        <v>29.33</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2008608321377325E-2</v>
+      <c r="F34" s="9">
+        <v>3</v>
+      </c>
+      <c r="G34" s="11">
+        <v>31.26</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1212338593974176</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1399,11 +1411,11 @@
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>0.83</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.0120481927710774E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1423,11 +1435,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>14.82</v>
+        <v>14.97</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>9.6153846153846256E-2</v>
+        <v>0.1072485207100593</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1448,11 +1460,11 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>1.7045454545454586E-2</v>
+        <v>9.4696969696970168E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1472,11 +1484,11 @@
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <v>7.74</v>
+        <v>8.69</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="0"/>
-        <v>0.37234042553191493</v>
+        <v>0.54078014184397172</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1496,35 +1508,35 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>0.11194029850746268</v>
+        <v>0.18656716417910446</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="10">
         <v>45569</v>
       </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
         <v>7.84</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2">
-        <v>8.09</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1887755102040893E-2</v>
+      <c r="F40" s="9">
+        <v>3</v>
+      </c>
+      <c r="G40" s="11">
+        <v>8.32</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918435E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1544,11 +1556,11 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <v>54.54</v>
+        <v>51.4</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>1.3943112102621225E-2</v>
+        <v>-4.4432050567019932E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1580,27 +1592,27 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="7">
         <v>45572</v>
       </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
         <v>112.16</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>5</v>
       </c>
-      <c r="G43" s="2">
-        <v>116.73</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0745363766048648E-2</v>
+      <c r="G43" s="6">
+        <v>121</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8815977175463736E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1620,11 +1632,11 @@
         <v>4</v>
       </c>
       <c r="G44" s="6">
-        <v>39.229999999999997</v>
+        <v>40.61</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>-2.8479445269935733E-2</v>
+        <v>5.6958890539871021E-3</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -1646,11 +1658,11 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>9.75</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>0.18902439024390261</v>
+        <v>0.12195121951219523</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1670,11 +1682,11 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <v>13.9</v>
+        <v>11.32</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>-4.0717736369910273E-2</v>
+        <v>-0.21877156659765351</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -1694,11 +1706,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="4">
-        <v>17.52</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>1.5652173913043521E-2</v>
+        <v>-1.5072463768115996E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1718,11 +1730,11 @@
         <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>53.4</v>
+        <v>55.42</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>-8.5459839013529715E-2</v>
+        <v>-5.0864874122281245E-2</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1744,11 +1756,11 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8939641109299048E-3</v>
+        <v>9.7879282218598096E-3</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
@@ -1768,11 +1780,11 @@
         <v>3</v>
       </c>
       <c r="G50" s="4">
-        <v>45.73</v>
+        <v>43.7</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>-5.8472308009059115E-2</v>
+        <v>-0.10026765493102729</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
@@ -1792,36 +1804,36 @@
         <v>10</v>
       </c>
       <c r="G51" s="6">
-        <v>15.56</v>
+        <v>19.2</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>-0.12975391498881428</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="10">
         <v>45575</v>
       </c>
-      <c r="D52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
         <v>2.7</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>1</v>
       </c>
-      <c r="G52" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="0"/>
-        <v>5.555555555555558E-2</v>
+      <c r="G52" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25925925925925908</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
@@ -1841,35 +1853,35 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>106.54</v>
+        <v>106.36</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2568807339449437E-2</v>
+        <v>-2.4220183486238556E-2</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="7">
         <v>45576</v>
       </c>
-      <c r="D54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
         <v>41.74</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
-        <v>39.270000000000003</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.9175850503114469E-2</v>
+      <c r="G54" s="6">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73862002874940091</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -1889,11 +1901,11 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>363.55</v>
+        <v>382</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>-3.6136592608303708E-2</v>
+        <v>1.2779044488042901E-2</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
@@ -1913,11 +1925,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>34.72</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="0"/>
-        <v>9.5958127362605339E-3</v>
+        <v>-1.0758941552776902E-2</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -1937,35 +1949,35 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>115.91</v>
+        <v>118</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>-7.7586206896551602E-4</v>
+        <v>1.7241379310344751E-2</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="7">
         <v>45581</v>
       </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="6">
         <v>67.209999999999994</v>
       </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58" s="2">
-        <v>63.3</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.8175866686504984E-2</v>
+      <c r="F58" s="4">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6">
+        <v>59.66</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.11233447403660168</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
@@ -1985,11 +1997,11 @@
         <v>2</v>
       </c>
       <c r="G59" s="2">
-        <v>13.35</v>
+        <v>14.97</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6964285714286031E-3</v>
+        <v>0.11383928571428581</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
@@ -2009,35 +2021,38 @@
         <v>2</v>
       </c>
       <c r="G60" s="2">
-        <v>7.07</v>
+        <v>7.3</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8208744710859213E-3</v>
+        <v>2.9619181946403339E-2</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="7">
         <v>45581</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>3.45</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>1</v>
       </c>
-      <c r="G61" s="2">
-        <v>4.91</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42318840579710137</v>
+      <c r="G61" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0811594202898549</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
@@ -2057,11 +2072,11 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>6.13</v>
+        <v>7.58</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1290322580645218E-2</v>
+        <v>0.22258064516129039</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -2081,11 +2096,11 @@
         <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>52.06</v>
+        <v>50.1</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>4.2438271604938738E-3</v>
+        <v>-3.3564814814814881E-2</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2105,16 +2120,16 @@
         <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>112.45</v>
+        <v>115.23</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5478810988820544E-2</v>
+        <v>-1.3866019585752065E-3</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="3">
         <v>45587</v>
@@ -2129,16 +2144,16 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <v>529.42999999999995</v>
+        <v>568</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2851935100013421E-2</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
         <v>45587</v>
@@ -2153,22 +2168,22 @@
         <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>0.19</v>
+        <v>0.152</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.20000000000000007</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="3">
         <v>45587</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2">
         <v>950</v>
@@ -2177,11 +2192,11 @@
         <v>2</v>
       </c>
       <c r="G67" s="2">
-        <v>950</v>
+        <v>1001</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3684210526315779E-2</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -2201,16 +2216,16 @@
         <v>10</v>
       </c>
       <c r="G68" s="2">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.4487895716945918E-3</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="3">
         <v>45588</v>
@@ -2225,11 +2240,11 @@
         <v>4</v>
       </c>
       <c r="G69" s="2">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.6580086580086979E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E8A3B-17FE-479A-AAEA-678AE1F344B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7763A3-3D21-4B29-BCBA-3737F8D9709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31620" yWindow="600" windowWidth="31485" windowHeight="19635" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-31290" yWindow="1980" windowWidth="22335" windowHeight="14880" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>LONG</t>
   </si>
@@ -283,6 +283,42 @@
   </si>
   <si>
     <t>weird fraud thing getting pumped</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>close short</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>DJT</t>
+  </si>
+  <si>
+    <t>close long, monster gain</t>
+  </si>
+  <si>
+    <t>close long, nice gain</t>
+  </si>
+  <si>
+    <t>LOWER CONVICTION</t>
+  </si>
+  <si>
+    <t>closing short-term position, keeping long-term</t>
+  </si>
+  <si>
+    <t>close long, great gain</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>W/L</t>
   </si>
 </sst>
 </file>
@@ -332,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,10 +378,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -773,13 +805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="B61:I61"/>
+      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,12 +822,12 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>68</v>
       </c>
@@ -814,27 +846,39 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -853,8 +897,11 @@
       <c r="G5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>59</v>
       </c>
@@ -876,8 +923,11 @@
       <c r="H6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -896,8 +946,11 @@
       <c r="G7" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -916,8 +969,11 @@
       <c r="G8">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
@@ -934,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="4">
-        <v>28.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>55</v>
@@ -951,10 +1007,13 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>47.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50.55</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -965,10 +1024,13 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10.76</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -979,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>121.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -996,10 +1058,13 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.83</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -1008,10 +1073,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>14.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>51</v>
       </c>
@@ -1023,10 +1091,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246.22</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -1037,10 +1108,13 @@
         <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86.09</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>49</v>
       </c>
@@ -1051,10 +1125,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="2">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16.41</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -1065,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>99.21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1079,10 +1156,13 @@
         <v>4</v>
       </c>
       <c r="G19" s="2">
-        <v>110.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>125.24</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1093,10 +1173,10 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1107,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -1121,10 +1201,13 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14.23</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -1135,10 +1218,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="2">
-        <v>21.09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27.75</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1149,10 +1235,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>24.44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34.19</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -1169,14 +1258,17 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>185</v>
+        <v>220.91</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:H69" si="0">+G25/E25-1</f>
-        <v>-4.6784830997526838E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H25:H72" si="0">+G25/E25-1</f>
+        <v>0.13824196207749373</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -1193,14 +1285,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23880597014925375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.20149253731343286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -1216,15 +1308,15 @@
       <c r="F27" s="4">
         <v>10</v>
       </c>
-      <c r="G27">
-        <v>26.55</v>
+      <c r="G27" s="2">
+        <v>27.6</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4476614699331813E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4498886414253906E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -1241,14 +1333,14 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>9.3699999999999992</v>
+        <v>10.33</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0.11680572109654341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.23122765196662676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1265,14 +1357,14 @@
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-6.4516129032258118E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2.4193548387096753E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>16</v>
@@ -1290,14 +1382,14 @@
         <v>5</v>
       </c>
       <c r="G30" s="6">
-        <v>19.25</v>
+        <v>22.38</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>-1.635155850792025E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.14358712314767486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>39</v>
@@ -1315,14 +1407,17 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>11.56</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3648648648648574E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-7.0945945945945943E-2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -1339,11 +1434,14 @@
         <v>3</v>
       </c>
       <c r="G32" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-6.4516129032258118E-2</v>
+        <v>2.4193548387096753E-2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1363,35 +1461,41 @@
         <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>26.46</v>
+        <v>27.64</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>-1.8545994065281901E-2</v>
+        <v>2.5222551928783421E-2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="3">
         <v>45568</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>27.88</v>
       </c>
-      <c r="F34" s="9">
-        <v>3</v>
-      </c>
-      <c r="G34" s="11">
-        <v>31.26</v>
-      </c>
-      <c r="H34" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1212338593974176</v>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35975609756097549</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1411,11 +1515,14 @@
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>0.80500000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0120481927710774E-2</v>
+        <v>-9.6385542168674676E-2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1435,11 +1542,14 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>14.97</v>
+        <v>15.44</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>0.1072485207100593</v>
+        <v>0.14201183431952669</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1460,11 +1570,11 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>5.33</v>
+        <v>5.42</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>9.4696969696970168E-3</v>
+        <v>2.6515151515151381E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1484,11 +1594,14 @@
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <v>8.69</v>
+        <v>9.67</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="0"/>
-        <v>0.54078014184397172</v>
+        <v>0.71453900709219864</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1508,35 +1621,41 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>3.18</v>
+        <v>3.33</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>0.18656716417910446</v>
+        <v>0.24253731343283569</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="3">
         <v>45569</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>7.84</v>
       </c>
-      <c r="F40" s="9">
-        <v>3</v>
-      </c>
-      <c r="G40" s="11">
-        <v>8.32</v>
-      </c>
-      <c r="H40" s="12">
-        <f t="shared" si="0"/>
-        <v>6.1224489795918435E-2</v>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8.84</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12755102040816335</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1556,11 +1675,14 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <v>51.4</v>
+        <v>52.58</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4432050567019932E-2</v>
+        <v>-2.249488752556239E-2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1588,6 +1710,9 @@
       </c>
       <c r="I42" t="s">
         <v>27</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -1608,11 +1733,14 @@
         <v>5</v>
       </c>
       <c r="G43" s="6">
-        <v>121</v>
+        <v>127.93</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="0"/>
-        <v>7.8815977175463736E-2</v>
+        <v>0.14060271041369488</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -1632,14 +1760,16 @@
         <v>4</v>
       </c>
       <c r="G44" s="6">
-        <v>40.61</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>5.6958890539871021E-3</v>
+        <v>-2.5012382367508801E-2</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
@@ -1657,12 +1787,15 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45">
-        <v>9.1999999999999993</v>
+      <c r="G45" s="2">
+        <v>7.37</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>0.12195121951219523</v>
+        <v>-0.10121951219512182</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -1682,11 +1815,14 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <v>11.32</v>
+        <v>13.79</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>-0.21877156659765351</v>
+        <v>-4.8309178743961456E-2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -1706,11 +1842,14 @@
         <v>3</v>
       </c>
       <c r="G47" s="4">
-        <v>16.989999999999998</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>-1.5072463768115996E-2</v>
+        <v>1.5072463768116107E-2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1730,16 +1869,18 @@
         <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>55.42</v>
+        <v>43.98</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="0"/>
-        <v>-5.0864874122281245E-2</v>
+        <v>-0.24678883370440152</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>18</v>
       </c>
@@ -1756,14 +1897,17 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>619</v>
+        <v>691.92</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>9.7879282218598096E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.12874388254486124</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>17</v>
       </c>
@@ -1779,15 +1923,18 @@
       <c r="F50" s="4">
         <v>3</v>
       </c>
-      <c r="G50" s="4">
-        <v>43.7</v>
+      <c r="G50" s="6">
+        <v>40.19</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10026765493102729</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+        <v>-0.17253448630842094</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>16</v>
       </c>
@@ -1804,39 +1951,45 @@
         <v>10</v>
       </c>
       <c r="G51" s="6">
-        <v>19.2</v>
+        <v>22.39</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>7.3825503355704702E-2</v>
+        <v>0.25223713646532442</v>
       </c>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="3">
         <v>45575</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11">
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
         <v>2.7</v>
       </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="H52" s="12">
-        <f t="shared" si="0"/>
-        <v>0.25925925925925908</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32592592592592595</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>14</v>
       </c>
@@ -1853,14 +2006,17 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>106.36</v>
+        <v>132.38999999999999</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4220183486238556E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.21458715596330258</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
@@ -1877,14 +2033,17 @@
         <v>1</v>
       </c>
       <c r="G54" s="6">
-        <v>72.569999999999993</v>
+        <v>82.17</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>0.73862002874940091</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.96861523718255871</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>12</v>
       </c>
@@ -1901,14 +2060,17 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>382</v>
+        <v>388.12</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>1.2779044488042901E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+        <v>2.9004719232196718E-2</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -1925,14 +2087,17 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>34.020000000000003</v>
+        <v>48.42</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0758941552776902E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.40796743239313749</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>10</v>
       </c>
@@ -1949,14 +2114,17 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>118</v>
+        <v>116.99</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>1.7241379310344751E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8.5344827586206762E-3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
@@ -1973,14 +2141,17 @@
         <v>3</v>
       </c>
       <c r="G58" s="6">
-        <v>59.66</v>
+        <v>62.85</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" si="0"/>
-        <v>-0.11233447403660168</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+        <v>-6.4871298913852016E-2</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>8</v>
       </c>
@@ -1997,14 +2168,17 @@
         <v>2</v>
       </c>
       <c r="G59" s="2">
-        <v>14.97</v>
+        <v>15.63</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>0.11383928571428581</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.1629464285714286</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -2021,14 +2195,17 @@
         <v>2</v>
       </c>
       <c r="G60" s="2">
-        <v>7.3</v>
+        <v>7.96</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>2.9619181946403339E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.12270803949224263</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -2045,17 +2222,20 @@
         <v>1</v>
       </c>
       <c r="G61" s="6">
-        <v>7.18</v>
+        <v>8.42</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>1.0811594202898549</v>
+        <v>1.4405797101449274</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -2072,14 +2252,17 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>7.58</v>
+        <v>10.01</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>0.22258064516129039</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+        <v>0.61451612903225805</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>2</v>
       </c>
@@ -2096,14 +2279,17 @@
         <v>5</v>
       </c>
       <c r="G63" s="2">
-        <v>50.1</v>
+        <v>53.5</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3564814814814881E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+        <v>3.2021604938271553E-2</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>1</v>
       </c>
@@ -2120,14 +2306,17 @@
         <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>115.23</v>
+        <v>84.79</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3866019585752065E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+        <v>-0.26518762457751965</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>70</v>
       </c>
@@ -2144,14 +2333,17 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <v>568</v>
+        <v>677.17</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" si="0"/>
-        <v>7.2851935100013421E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+        <v>0.27905483255576757</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -2168,14 +2360,17 @@
         <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>0.152</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20000000000000007</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+        <v>-0.26315789473684204</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>72</v>
       </c>
@@ -2192,14 +2387,17 @@
         <v>2</v>
       </c>
       <c r="G67" s="2">
-        <v>1001</v>
+        <v>977.8</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="0"/>
-        <v>5.3684210526315779E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2.926315789473688E-2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -2216,14 +2414,17 @@
         <v>10</v>
       </c>
       <c r="G68" s="2">
-        <v>5.33</v>
+        <v>5.45</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="0"/>
-        <v>-7.4487895716945918E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1.4897579143389184E-2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>74</v>
       </c>
@@ -2240,11 +2441,332 @@
         <v>4</v>
       </c>
       <c r="G69" s="2">
-        <v>2.29</v>
+        <v>3.01</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="0"/>
-        <v>-8.6580086580086979E-3</v>
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="3">
+        <v>45601</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>177</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2">
+        <v>175.59</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.9661016949151842E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="H72" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2">
+        <v>82.17</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="2">
+        <v>82.17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2">
+        <v>132.38999999999999</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="2">
+        <v>132.38999999999999</v>
+      </c>
+      <c r="I74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="2">
+        <v>22.42</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>22.42</v>
+      </c>
+      <c r="I75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="I76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2">
+        <v>37.94</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="2">
+        <v>37.94</v>
+      </c>
+      <c r="I77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K77" s="5">
+        <f>+K78/K79</f>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2">
+        <v>34.19</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="2">
+        <v>34.19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>86</v>
+      </c>
+      <c r="K78" s="4">
+        <f>SUM(J3:J69)</f>
+        <v>36</v>
+      </c>
+      <c r="L78" s="4">
+        <f>+K79-K78</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2">
+        <v>27.73</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="2">
+        <v>27.73</v>
+      </c>
+      <c r="I79" t="s">
+        <v>86</v>
+      </c>
+      <c r="K79" s="4">
+        <f>COUNT(J3:J69)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2">
+        <v>14.23</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" s="2">
+        <v>14.23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="I81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2">
+        <v>86.02</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="2">
+        <v>86.02</v>
+      </c>
+      <c r="I82" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7763A3-3D21-4B29-BCBA-3737F8D9709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F819CFB-1C81-46D5-A902-1CA3B1F8AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31290" yWindow="1980" windowWidth="22335" windowHeight="14880" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-29325" yWindow="1575" windowWidth="22095" windowHeight="13845" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="90">
   <si>
     <t>LONG</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>W/L</t>
+  </si>
+  <si>
+    <t>PHAR</t>
   </si>
 </sst>
 </file>
@@ -805,13 +808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2769,6 +2772,26 @@
         <v>83</v>
       </c>
     </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45608</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" s="2">
+        <v>8.18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{783A0D50-9F61-4390-8073-6E4665D37066}"/>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F819CFB-1C81-46D5-A902-1CA3B1F8AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D058B-09A7-4D41-978D-0399D0490ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="1575" windowWidth="22095" windowHeight="13845" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-26970" yWindow="2115" windowWidth="26040" windowHeight="15960" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
   <si>
     <t>LONG</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>PHAR</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomRight" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,92 +980,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C12" s="7">
         <v>45538</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
         <v>29.52</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G12" s="4">
         <v>27.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="I12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>50.55</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>10.76</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>127.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45550</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
       <c r="G13">
-        <v>1.83</v>
+        <v>46.51</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1069,363 +1043,388 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>54</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>16.010000000000002</v>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>8.14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>26</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>246.22</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
+        <v>120.8</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45550</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>1.67</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>247.02</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>86.09</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>16.41</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>95.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" s="2">
-        <v>125.24</v>
+        <v>78.5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15.13</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>86.86</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>116.6</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="I23" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>14.23</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>14.71</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>27.75</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>34.19</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>37.14</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C28" s="3">
         <v>45566</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>194.08</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>220.91</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ref="H25:H72" si="0">+G25/E25-1</f>
-        <v>0.13824196207749373</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>186.55</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:H75" si="0">+G28/E28-1</f>
+        <v>-3.8798433635614193E-2</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C29" s="3">
         <v>45566</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>1.34</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.20149253731343286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.22388059701492535</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C30" s="3">
         <v>45567</v>
       </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27">
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
         <v>26.94</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="G27" s="2">
-        <v>27.6</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4498886414253906E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="G30" s="2">
+        <v>27.46</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9302152932442418E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="3">
-        <v>45567</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>8.39</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>10.33</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23122765196662676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3">
-        <v>45567</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>1.24</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4193548387096753E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>45567</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>19.57</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6">
-        <v>22.38</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14358712314767486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
-        <v>39</v>
       </c>
       <c r="C31" s="3">
         <v>45567</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>11.84</v>
+        <v>8.39</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>11</v>
+        <v>8.91</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-7.0945945945945943E-2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.1978545887961811E-2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>45568</v>
+        <v>45567</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1447,382 +1446,377 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7">
-        <v>45568</v>
+        <v>45567</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>26.96</v>
+        <v>19.57</v>
       </c>
       <c r="F33" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" s="6">
-        <v>27.64</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5222551928783421E-2</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
+        <v>20.59</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2120592743995831E-2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
-        <v>45568</v>
+        <v>45567</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>27.88</v>
+        <v>11.84</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>37.909999999999997</v>
+        <v>9.02</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>0.35975609756097549</v>
+        <v>-0.23817567567567566</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3">
         <v>45568</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0.83</v>
+        <v>1.24</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" s="2">
-        <v>0.75</v>
+        <v>1.27</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>-9.6385542168674676E-2</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="3">
+        <v>2.4193548387096753E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="7">
         <v>45568</v>
       </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>13.52</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2">
-        <v>15.44</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14201183431952669</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>26.96</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6">
+        <v>27.46</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8545994065281901E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3">
         <v>45568</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>5.28</v>
+        <v>27.88</v>
       </c>
       <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>5.42</v>
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>37.94</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>2.6515151515151381E-2</v>
+        <v>0.36083213773314204</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="7">
-        <v>45569</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5.64</v>
-      </c>
-      <c r="F38" s="4">
-        <v>3</v>
-      </c>
-      <c r="G38" s="4">
-        <v>9.67</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.71453900709219864</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45568</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0.83</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.22891566265060237</v>
+      </c>
+      <c r="J38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
+        <v>45568</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>13.52</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19082840236686394</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45568</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>5.28</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>4.3</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.18560606060606066</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7">
         <v>45569</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>2.68</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>3.33</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24253731343283569</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="3">
-        <v>45569</v>
-      </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>7.84</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2">
-        <v>8.84</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12755102040816335</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <v>45571</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>53.79</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>52.58</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.249488752556239E-2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.64</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44148936170212782</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
-        <v>45572</v>
+        <v>45569</v>
       </c>
       <c r="D42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>2.68</v>
       </c>
       <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42" s="2">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2.97</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
+        <v>0.10820895522388052</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="7">
-        <v>45572</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>112.16</v>
-      </c>
-      <c r="F43" s="4">
-        <v>5</v>
-      </c>
-      <c r="G43" s="6">
-        <v>127.93</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14060271041369488</v>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45569</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>7.84</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5051020408163129E-2</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="7">
-        <v>45572</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
-      </c>
-      <c r="G44" s="6">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.5012382367508801E-2</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45571</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>53.79</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44.99</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.16359918200408996</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3">
         <v>45572</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>8.1999999999999993</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>7.37</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10121951219512182</v>
+        <v>0.24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45573</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46">
-        <v>14.49</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" s="2">
-        <v>13.79</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.8309178743961456E-2</v>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45572</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>112.16</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" s="6">
+        <v>120.38</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3288159771754735E-2</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -1830,244 +1824,243 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C47" s="7">
-        <v>45573</v>
+        <v>45572</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>17.25</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="F47" s="4">
-        <v>3</v>
-      </c>
-      <c r="G47" s="4">
-        <v>17.510000000000002</v>
+        <v>4</v>
+      </c>
+      <c r="G47" s="6">
+        <v>32.409999999999997</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="0"/>
-        <v>1.5072463768116107E-2</v>
-      </c>
+        <v>-0.19737493808816264</v>
+      </c>
+      <c r="I47" s="4"/>
       <c r="J47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="7">
-        <v>45573</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>58.39</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="6">
-        <v>43.98</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.24678883370440152</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45572</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19512195121951215</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3">
         <v>45573</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2">
-        <v>613</v>
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>14.49</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="2">
-        <v>691.92</v>
+        <v>13.79</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>0.12874388254486124</v>
+        <v>-4.8309178743961456E-2</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C50" s="7">
-        <v>45574</v>
+        <v>45573</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>48.57</v>
+        <v>17.25</v>
       </c>
       <c r="F50" s="4">
         <v>3</v>
       </c>
-      <c r="G50" s="6">
-        <v>40.19</v>
+      <c r="G50" s="4">
+        <v>12.74</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="0"/>
-        <v>-0.17253448630842094</v>
-      </c>
-      <c r="J50">
+        <v>-0.26144927536231888</v>
+      </c>
+      <c r="J50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" s="7">
-        <v>45575</v>
+        <v>45573</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>17.88</v>
+        <v>58.39</v>
       </c>
       <c r="F51" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G51" s="6">
-        <v>22.39</v>
+        <v>37.08</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="0"/>
-        <v>0.25223713646532442</v>
+        <v>-0.36495975338242859</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3">
-        <v>45575</v>
+        <v>45573</v>
       </c>
       <c r="D52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2">
-        <v>2.7</v>
+        <v>613</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>3.58</v>
+        <v>644.65</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="0"/>
-        <v>0.32592592592592595</v>
+        <v>5.1631321370309902E-2</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="3">
-        <v>45576</v>
-      </c>
-      <c r="D53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>109</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>132.38999999999999</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21458715596330258</v>
+      <c r="B53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7">
+        <v>45574</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>48.57</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>39.76</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.18138768787317283</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7">
-        <v>45576</v>
+        <v>45575</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="6">
-        <v>41.74</v>
+      <c r="E54" s="4">
+        <v>17.88</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G54" s="6">
-        <v>82.17</v>
+        <v>20.55</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" si="0"/>
-        <v>0.96861523718255871</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
+        <v>0.14932885906040272</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3">
-        <v>45580</v>
+        <v>45575</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>377.18</v>
+        <v>2.7</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>388.12</v>
+        <v>3.51</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>2.9004719232196718E-2</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2075,172 +2068,172 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" s="3">
+        <v>45576</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>109</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>119.15</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3119266055045946E-2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="7">
+        <v>45576</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>41.74</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>82.17</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.96861523718255871</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3">
         <v>45580</v>
       </c>
-      <c r="D56" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
-        <v>34.39</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>48.42</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40796743239313749</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="3">
-        <v>45580</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2">
-        <v>116</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57" s="2">
-        <v>116.99</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5344827586206762E-3</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="7">
-        <v>45581</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="6">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3</v>
-      </c>
-      <c r="G58" s="6">
-        <v>62.85</v>
-      </c>
-      <c r="H58" s="5">
-        <f t="shared" si="0"/>
-        <v>-6.4871298913852016E-2</v>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>377.18</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>340.16</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.8149424677872577E-2</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C59" s="3">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>13.44</v>
+        <v>34.39</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>15.63</v>
+        <v>49.64</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>0.1629464285714286</v>
+        <v>0.44344286129688859</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="2">
-        <v>7.09</v>
+        <v>116</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="2">
-        <v>7.96</v>
+        <v>115.77</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>0.12270803949224263</v>
+        <v>-1.9827586206896397E-3</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" s="7">
         <v>45581</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="4">
-        <v>3.45</v>
+        <v>3</v>
+      </c>
+      <c r="E61" s="6">
+        <v>67.209999999999994</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="6">
-        <v>8.42</v>
+        <v>60.84</v>
       </c>
       <c r="H61" s="5">
         <f t="shared" si="0"/>
-        <v>1.4405797101449274</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
+        <v>-9.477756286266914E-2</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3">
         <v>45581</v>
@@ -2249,17 +2242,17 @@
         <v>3</v>
       </c>
       <c r="E62" s="2">
-        <v>6.2</v>
+        <v>13.44</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="2">
-        <v>10.01</v>
+        <v>15.09</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>0.61451612903225805</v>
+        <v>0.12276785714285721</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2267,337 +2260,355 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3">
+        <v>45581</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7.09</v>
+      </c>
+      <c r="F63">
         <v>2</v>
       </c>
-      <c r="C63" s="3">
+      <c r="G63" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0267983074753255E-2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7">
+        <v>45581</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>7.03</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0376811594202899</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>45581</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21935483870967731</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3">
         <v>45583</v>
       </c>
-      <c r="D63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
         <v>51.84</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-      <c r="G63" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2021604938271553E-2</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
-        <v>45586</v>
-      </c>
-      <c r="D64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
-        <v>115.39</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64" s="2">
-        <v>84.79</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.26518762457751965</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="3">
-        <v>45587</v>
-      </c>
-      <c r="D65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
-        <v>529.42999999999995</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65" s="2">
-        <v>677.17</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27905483255576757</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="3">
-        <v>45587</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.19</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>0.14000000000000001</v>
+        <v>45.84</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>-0.26315789473684204</v>
+        <v>-0.1157407407407407</v>
       </c>
       <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>45587</v>
+        <v>45586</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>950</v>
+        <v>115.39</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>977.8</v>
+        <v>83.5</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="0"/>
-        <v>2.926315789473688E-2</v>
+        <v>-0.27636710286853283</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C68" s="3">
         <v>45587</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2">
+        <v>529.42999999999995</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2">
+        <v>683</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29006667548117804</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3">
+        <v>45587</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3">
+        <v>45587</v>
+      </c>
+      <c r="D70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2">
+        <v>950</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2">
+        <v>981.4</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3052631578947445E-2</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45587</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
         <v>5.37</v>
       </c>
-      <c r="F68">
+      <c r="F71">
         <v>10</v>
       </c>
-      <c r="G68" s="2">
-        <v>5.45</v>
-      </c>
-      <c r="H68" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4897579143389184E-2</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="G71" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19180633147113602</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C72" s="3">
         <v>45588</v>
       </c>
-      <c r="D69" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
         <v>2.31</v>
       </c>
-      <c r="F69">
+      <c r="F72">
         <v>4</v>
       </c>
-      <c r="G69" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="H69" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30303030303030298</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="G72" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C73" s="3">
         <v>45601</v>
-      </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="H70" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="3">
-        <v>45607</v>
-      </c>
-      <c r="D71" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <v>177</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-      <c r="G71" s="2">
-        <v>175.59</v>
-      </c>
-      <c r="H71" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.9661016949151842E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="3">
-        <v>45607</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72" s="2">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="H72" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="3">
-        <v>45607</v>
       </c>
       <c r="D73" t="s">
         <v>77</v>
       </c>
       <c r="E73" s="2">
-        <v>82.17</v>
+        <v>10.9</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="2">
-        <v>82.17</v>
+        <v>10.9</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C74" s="3">
         <v>45607</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
-        <v>132.38999999999999</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>78</v>
+        <v>177</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
       </c>
       <c r="G74" s="2">
-        <v>132.38999999999999</v>
-      </c>
-      <c r="I74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+        <v>166.03</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1977401129943543E-2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3">
         <v>45607</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="2">
-        <v>22.42</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="G75" s="2">
-        <v>22.42</v>
-      </c>
-      <c r="I75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+        <v>30.42</v>
+      </c>
+      <c r="H75" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3">
         <v>45607</v>
@@ -2606,21 +2617,21 @@
         <v>77</v>
       </c>
       <c r="E76" s="2">
-        <v>9.67</v>
+        <v>82.17</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G76" s="2">
-        <v>9.67</v>
+        <v>82.17</v>
       </c>
       <c r="I76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C77" s="3">
         <v>45607</v>
@@ -2629,56 +2640,44 @@
         <v>77</v>
       </c>
       <c r="E77" s="2">
-        <v>37.94</v>
+        <v>132.38999999999999</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G77" s="2">
-        <v>37.94</v>
+        <v>132.38999999999999</v>
       </c>
       <c r="I77" t="s">
-        <v>86</v>
-      </c>
-      <c r="K77" s="5">
-        <f>+K78/K79</f>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C78" s="3">
         <v>45607</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E78" s="2">
-        <v>34.19</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>78</v>
+        <v>22.42</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
       </c>
       <c r="G78" s="2">
-        <v>34.19</v>
+        <v>20.61</v>
       </c>
       <c r="I78" t="s">
-        <v>86</v>
-      </c>
-      <c r="K78" s="4">
-        <f>SUM(J3:J69)</f>
-        <v>36</v>
-      </c>
-      <c r="L78" s="4">
-        <f>+K79-K78</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C79" s="3">
         <v>45607</v>
@@ -2687,25 +2686,21 @@
         <v>77</v>
       </c>
       <c r="E79" s="2">
-        <v>27.73</v>
+        <v>9.67</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G79" s="2">
-        <v>27.73</v>
+        <v>9.67</v>
       </c>
       <c r="I79" t="s">
         <v>86</v>
       </c>
-      <c r="K79" s="4">
-        <f>COUNT(J3:J69)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C80" s="3">
         <v>45607</v>
@@ -2714,21 +2709,25 @@
         <v>77</v>
       </c>
       <c r="E80" s="2">
-        <v>14.23</v>
+        <v>37.94</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G80" s="2">
-        <v>14.23</v>
+        <v>37.94</v>
       </c>
       <c r="I80" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K80" s="5">
+        <f>+K81/K82</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C81" s="3">
         <v>45607</v>
@@ -2737,21 +2736,29 @@
         <v>77</v>
       </c>
       <c r="E81" s="2">
-        <v>16.41</v>
+        <v>34.19</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G81" s="2">
-        <v>16.41</v>
+        <v>34.19</v>
       </c>
       <c r="I81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="K81" s="4">
+        <f>SUM(J3:J72)</f>
+        <v>33</v>
+      </c>
+      <c r="L81" s="4">
+        <f>+K82-K81</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C82" s="3">
         <v>45607</v>
@@ -2760,36 +2767,126 @@
         <v>77</v>
       </c>
       <c r="E82" s="2">
-        <v>86.02</v>
+        <v>27.73</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G82" s="2">
+        <v>27.73</v>
+      </c>
+      <c r="I82" t="s">
+        <v>86</v>
+      </c>
+      <c r="K82" s="4">
+        <f>COUNT(J3:J72)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2">
+        <v>14.23</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="2">
+        <v>14.23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="I84" t="s">
+        <v>83</v>
+      </c>
+      <c r="K84" s="5">
+        <f>+K85/K86</f>
+        <v>0.59649122807017541</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D85" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2">
         <v>86.02</v>
       </c>
-      <c r="I82" t="s">
+      <c r="F85" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" s="2">
+        <v>86.02</v>
+      </c>
+      <c r="I85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="K85">
+        <v>34</v>
+      </c>
+      <c r="L85" s="10">
+        <f>+K86-K85</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C86" s="3">
         <v>45608</v>
       </c>
-      <c r="D83" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
         <v>8.18</v>
       </c>
-      <c r="F83">
+      <c r="F86">
         <v>6</v>
       </c>
-      <c r="G83" s="2">
-        <v>8.18</v>
+      <c r="G86" s="2">
+        <v>7.53</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Recommendations.xlsx
+++ b/Recommendations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D058B-09A7-4D41-978D-0399D0490ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A834E043-E1D2-4E55-BEC3-86293CC959EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26970" yWindow="2115" windowWidth="26040" windowHeight="15960" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
+    <workbookView xWindow="-16275" yWindow="2610" windowWidth="14700" windowHeight="17085" xr2:uid="{4B04F6CD-CE0E-43DC-8D1F-EDFA3190AEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendations" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>LONG</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>NEW</t>
+  </si>
+  <si>
+    <t>SRPT</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>STZ</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -387,7 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,13 +820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0108FBF-E4BB-4D41-9F39-55ECD3501167}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2858,7 +2866,7 @@
       <c r="K85">
         <v>34</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85">
         <f>+K86-K85</f>
         <v>23</v>
       </c>
@@ -2887,6 +2895,66 @@
       </c>
       <c r="K86">
         <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45740</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>74.67</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2">
+        <v>75.12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="3">
+        <v>45740</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>275.23</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" s="2">
+        <v>277.83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45740</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>180.28</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>179.65</v>
       </c>
     </row>
   </sheetData>
